--- a/src/test/resources/register.xlsx
+++ b/src/test/resources/register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suhasm\Desktop\core\new\MainAssignment\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8421E0A3-80E8-4AF3-B54F-44C725E7C27F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C8A343-2104-4B4A-9162-F69DAB29476B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BBCB29BE-1FDC-46F4-A885-69647674E7B4}"/>
   </bookViews>
@@ -36,10 +36,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>suhasm</t>
+    <t>suhasm1</t>
   </si>
   <si>
-    <t>suhasm@gmail.com</t>
+    <t>suhasm1@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
         <v>12345678</v>
       </c>
       <c r="D1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
